--- a/Team08_Report.xlsx
+++ b/Team08_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,8 @@
     <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Stories" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Stories" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="261">
   <si>
     <t xml:space="preserve">Initials</t>
   </si>
@@ -351,6 +352,153 @@
     <t xml:space="preserve">Avoid:</t>
   </si>
   <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than 150 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T07.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T07.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare 150 with lifetime length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T08.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store birth date of children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T08.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store marriage date of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T08.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare the birth and marriage date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before death of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T09.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T09.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store death date of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T09.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare the birth date and death date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage after 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate the marriage year and compare it with 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No bigamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T11.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store divorce date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T11.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the marriage date of the people with divorce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T11.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test if the marriage date exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents not too old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store birth date of mother and father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtract both dates and compare: 1)60 with mother; 2) 80 with father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep integration and refactoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the acceptance tests as well as comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We did a great job, the coding velocity is faster than the last sprint. Keep enhancing, everyone!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join Zoom meeting this Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform code refactoring again and try to finish all the sprints by the end of next week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance the workload of each team member, and the amount of code for each developer is as consistent as possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be careful about the committed version on GitHub and uplaod your codes on github asap</t>
+  </si>
+  <si>
     <t xml:space="preserve">Story Description</t>
   </si>
   <si>
@@ -372,55 +520,22 @@
     <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
   </si>
   <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Less then 150 years old</t>
   </si>
   <si>
     <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
   </si>
   <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
     <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
   </si>
   <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
     <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
   </si>
   <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
   </si>
   <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
   </si>
   <si>
     <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
@@ -700,15 +815,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="168" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="170" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -786,18 +902,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <name val="Ubuntu"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <name val="Ubuntu"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -876,7 +998,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -973,68 +1095,100 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1120,7 +1274,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.02734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.04296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.71"/>
@@ -1261,7 +1415,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.02734375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.04296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -1472,7 +1626,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.02734375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.04296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="112.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21"/>
@@ -4173,7 +4327,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.02734375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.04296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
@@ -6845,2573 +6999,2573 @@
   </sheetPr>
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.02734375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.04296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="6" width="10.04"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="28" t="n">
         <v>150</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="28" t="n">
         <v>200</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="28" t="n">
         <v>120</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="21" t="n">
+      <c r="E10" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="21" t="n">
+      <c r="F10" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="21" t="n">
+      <c r="F11" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="21" t="n">
+      <c r="E12" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="21" t="n">
+      <c r="F12" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="21" t="n">
+      <c r="E14" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="F14" s="21" t="n">
+      <c r="F14" s="34" t="n">
         <v>50</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="21" t="n">
+      <c r="E16" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F16" s="21" t="n">
+      <c r="F16" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="21" t="n">
+      <c r="F17" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="21" t="n">
+      <c r="E18" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="21" t="n">
+      <c r="F18" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="21" t="n">
+      <c r="E20" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F20" s="21" t="n">
+      <c r="F20" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="21" t="n">
+      <c r="E22" s="34" t="n">
         <v>150</v>
       </c>
-      <c r="F22" s="21" t="n">
+      <c r="F22" s="34" t="n">
         <v>60</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="21" t="n">
+      <c r="E24" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="s">
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F25" s="21" t="n">
+      <c r="F25" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="21" t="n">
+      <c r="E26" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="21" t="n">
+      <c r="E28" s="34" t="n">
         <v>150</v>
       </c>
-      <c r="F28" s="21" t="n">
+      <c r="F28" s="34" t="n">
         <v>80</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="21" t="n">
+      <c r="E30" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="21" t="n">
+      <c r="F30" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="s">
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="21" t="n">
+      <c r="E31" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F31" s="21" t="n">
+      <c r="F31" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="s">
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="21" t="n">
+      <c r="E32" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F32" s="21" t="n">
+      <c r="F32" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="34"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="21" t="n">
+      <c r="E34" s="34" t="n">
         <v>150</v>
       </c>
-      <c r="F34" s="21" t="n">
+      <c r="F34" s="34" t="n">
         <v>80</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="21" t="n">
+      <c r="E36" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F36" s="21" t="n">
+      <c r="F36" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="33" t="s">
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="21" t="n">
+      <c r="E37" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F37" s="21" t="n">
+      <c r="F37" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="21" t="n">
+      <c r="E38" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="F38" s="21" t="n">
+      <c r="F38" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="37" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="32"/>
+      <c r="B41" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="37" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="32"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="32"/>
+      <c r="B43" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="36" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="32"/>
+      <c r="B44" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="34" t="s">
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="28"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32"/>
+      <c r="B45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="B47" s="37" t="s">
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="32"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="32"/>
+      <c r="B47" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="9"/>
-    </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="9"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="9"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="9"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="9"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="9"/>
-    </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="9"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="9"/>
-    </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="9"/>
-    </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="9"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="9"/>
-    </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="9"/>
-    </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="9"/>
-    </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="9"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="9"/>
-    </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="9"/>
-    </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="9"/>
-    </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="9"/>
-    </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="9"/>
-    </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="9"/>
-    </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="9"/>
-    </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="9"/>
-    </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="9"/>
-    </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="9"/>
-    </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="9"/>
-    </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="9"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="9"/>
-    </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="9"/>
-    </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="9"/>
-    </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="9"/>
-    </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="9"/>
-    </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="9"/>
-    </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="9"/>
-    </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="9"/>
-    </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="9"/>
-    </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="9"/>
-    </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="9"/>
-    </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="9"/>
-    </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="9"/>
-    </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="9"/>
-    </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="9"/>
-    </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="9"/>
-    </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="9"/>
-    </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="9"/>
-    </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="9"/>
-    </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="9"/>
-    </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="9"/>
-    </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="9"/>
-    </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="9"/>
-    </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="9"/>
-    </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="9"/>
-    </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="9"/>
-    </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="9"/>
-    </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="9"/>
-    </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="9"/>
-    </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="9"/>
-    </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="9"/>
-    </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="9"/>
-    </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="9"/>
-    </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="9"/>
-    </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="9"/>
-    </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="9"/>
-    </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="9"/>
-    </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="9"/>
-    </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="9"/>
-    </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="9"/>
-    </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="9"/>
-    </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="9"/>
-    </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="9"/>
-    </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="9"/>
-    </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="9"/>
-    </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="9"/>
-    </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="9"/>
-    </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="9"/>
-    </row>
-    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="9"/>
-    </row>
-    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="9"/>
-    </row>
-    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="9"/>
-    </row>
-    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="9"/>
-    </row>
-    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="9"/>
-    </row>
-    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="9"/>
-    </row>
-    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="9"/>
-    </row>
-    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="9"/>
-    </row>
-    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="9"/>
-    </row>
-    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="9"/>
-    </row>
-    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="9"/>
-    </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="9"/>
-    </row>
-    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="9"/>
-    </row>
-    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="7"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="9"/>
-    </row>
-    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="7"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="9"/>
-    </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="7"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="9"/>
-    </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="7"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="9"/>
-    </row>
-    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="7"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="9"/>
-    </row>
-    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="7"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="9"/>
-    </row>
-    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-      <c r="I192" s="9"/>
-    </row>
-    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
-      <c r="I193" s="9"/>
-    </row>
-    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="7"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="9"/>
-    </row>
-    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="7"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="9"/>
-    </row>
-    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="7"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-      <c r="I196" s="9"/>
-    </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
-      <c r="I197" s="9"/>
-    </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="7"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="9"/>
-    </row>
-    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="7"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="9"/>
-    </row>
-    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="7"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="9"/>
-    </row>
-    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="7"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="9"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="32"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="32"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="32"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="32"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="32"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="32"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="32"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="32"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="32"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="32"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="32"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="28"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="32"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="32"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="28"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="32"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="32"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="28"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="32"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="28"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="32"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="28"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="32"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="28"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="32"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="28"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="32"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="28"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="32"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="28"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="32"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="28"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="32"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="28"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="32"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="28"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="32"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="28"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="32"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="28"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="32"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="28"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="32"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="28"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="32"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="28"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="32"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="28"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="32"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="28"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="32"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="28"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="32"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="28"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="32"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="28"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="32"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="28"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="32"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="28"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="32"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="28"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="32"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="28"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="32"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="28"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="32"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="28"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="32"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="28"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="32"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="28"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="32"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="28"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="32"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="28"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="32"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="28"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="32"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="28"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="32"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="28"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="32"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="28"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="32"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="28"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="32"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="28"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="32"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="28"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="32"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="28"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="32"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="28"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="32"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="28"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="32"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="28"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="32"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="28"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="32"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="28"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="32"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="28"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="32"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="28"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="32"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="28"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="32"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="28"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="32"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="28"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="32"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="28"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="32"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="28"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="32"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="28"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="32"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="28"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="32"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="28"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="32"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="28"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="32"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="28"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="32"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="28"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="32"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="28"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="32"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="28"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="32"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="28"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="32"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="28"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="32"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="28"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="32"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="28"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="32"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="28"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="32"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="28"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="32"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="28"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="32"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="28"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="32"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="28"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="32"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="28"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="32"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="28"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="32"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="28"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="32"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="28"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="32"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="28"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="32"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="28"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="32"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="28"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="32"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="28"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="32"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="28"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="32"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="28"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="32"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="28"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="32"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="28"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="32"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="28"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="32"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="28"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="32"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="28"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="32"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="28"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="32"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="28"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="32"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="28"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="32"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="28"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="32"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="28"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="32"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="28"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="32"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="28"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="32"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="28"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="32"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="28"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="32"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="28"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="32"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="28"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="32"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="28"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="32"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="28"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="32"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="28"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="32"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="28"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="32"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="28"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="32"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="28"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="32"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="28"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="32"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="28"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="32"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="28"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="32"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="28"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="32"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="28"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="32"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="28"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="32"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="28"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="32"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="28"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="32"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="28"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="32"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="28"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="32"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="28"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="32"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="28"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="32"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="28"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="32"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="28"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="32"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="28"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="32"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="28"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="32"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="28"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="32"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="28"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="32"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="28"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="32"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="28"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="32"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="28"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="32"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="28"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="32"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="28"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="32"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="28"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="32"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="28"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="32"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="28"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="32"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32"/>
+      <c r="I189" s="28"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="32"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="32"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="32"/>
+      <c r="I190" s="28"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="32"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="28"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="32"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="28"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="32"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="28"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="32"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="28"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="32"/>
+      <c r="B195" s="29"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="28"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="32"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="32"/>
+      <c r="I196" s="28"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="32"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="28"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="32"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="28"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="32"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="28"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="32"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="28"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="32"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9429,13 +9583,598 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.68359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="67.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="6" width="12.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="6" width="9.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="42" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2" s="42" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2" s="42" t="n">
+        <v>160</v>
+      </c>
+      <c r="H2" s="42" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="42" t="n">
+        <v>160</v>
+      </c>
+      <c r="F8" s="42" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" s="42" t="n">
+        <v>160</v>
+      </c>
+      <c r="H8" s="42" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="42" t="n">
+        <v>180</v>
+      </c>
+      <c r="F14" s="42" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" s="42" t="n">
+        <v>120</v>
+      </c>
+      <c r="H14" s="42" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="42" t="n">
+        <v>140</v>
+      </c>
+      <c r="F20" s="42" t="n">
+        <v>70</v>
+      </c>
+      <c r="G20" s="42" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="42" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="42" t="n">
+        <v>180</v>
+      </c>
+      <c r="F26" s="42" t="n">
+        <v>120</v>
+      </c>
+      <c r="G26" s="42" t="n">
+        <v>250</v>
+      </c>
+      <c r="H26" s="42" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="42" t="n">
+        <v>200</v>
+      </c>
+      <c r="F32" s="42" t="n">
+        <v>160</v>
+      </c>
+      <c r="G32" s="42" t="n">
+        <v>150</v>
+      </c>
+      <c r="H32" s="42" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="37"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.02734375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.04296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
@@ -9450,8 +10189,8 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>108</v>
+      <c r="C1" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9469,8 +10208,8 @@
       <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>109</v>
+      <c r="C2" s="45" t="s">
+        <v>158</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -9488,8 +10227,8 @@
       <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>110</v>
+      <c r="C3" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -9507,8 +10246,8 @@
       <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>111</v>
+      <c r="C4" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -9526,8 +10265,8 @@
       <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>112</v>
+      <c r="C5" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -9545,8 +10284,8 @@
       <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>113</v>
+      <c r="C6" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -9564,8 +10303,8 @@
       <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>114</v>
+      <c r="C7" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -9578,13 +10317,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>117</v>
+        <v>164</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -9597,13 +10336,13 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -9616,13 +10355,13 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="38" t="s">
         <v>123</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -9635,13 +10374,13 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -9654,13 +10393,13 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>169</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -9673,13 +10412,13 @@
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -9692,13 +10431,13 @@
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>135</v>
+        <v>172</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -9711,13 +10450,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>138</v>
+        <v>175</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -9730,13 +10469,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>141</v>
+        <v>178</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>179</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -9749,13 +10488,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>144</v>
+        <v>181</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -9768,13 +10507,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>184</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -9787,13 +10526,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>150</v>
+        <v>187</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -9806,13 +10545,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>153</v>
+        <v>190</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -9825,13 +10564,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>156</v>
+        <v>193</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -9844,13 +10583,13 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>159</v>
+        <v>196</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -9863,13 +10602,13 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>162</v>
+        <v>199</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>200</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -9882,13 +10621,13 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>165</v>
+        <v>202</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -9901,13 +10640,13 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>168</v>
+        <v>205</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>206</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -9920,13 +10659,13 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>171</v>
+        <v>208</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -9939,13 +10678,13 @@
     </row>
     <row r="27" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>174</v>
+        <v>211</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -9958,13 +10697,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>177</v>
+        <v>214</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>215</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -9977,13 +10716,13 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>180</v>
+        <v>217</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>218</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -9996,13 +10735,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>183</v>
+        <v>220</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -10015,13 +10754,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>186</v>
+        <v>223</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>224</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -10034,13 +10773,13 @@
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>189</v>
+        <v>226</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>227</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -10053,13 +10792,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>192</v>
+        <v>229</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>230</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -10072,13 +10811,13 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>195</v>
+        <v>232</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -10091,13 +10830,13 @@
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>198</v>
+        <v>235</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>236</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -10110,13 +10849,13 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>201</v>
+        <v>238</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>239</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -10129,13 +10868,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>204</v>
+        <v>241</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>242</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -10148,13 +10887,13 @@
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>207</v>
+        <v>244</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>245</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -10167,13 +10906,13 @@
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>210</v>
+        <v>247</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -10186,13 +10925,13 @@
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>213</v>
+        <v>250</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>251</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -10205,13 +10944,13 @@
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>216</v>
+        <v>253</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>254</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -10224,13 +10963,13 @@
     </row>
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>219</v>
+        <v>256</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>257</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -10243,13 +10982,13 @@
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>222</v>
+        <v>259</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -10263,7 +11002,7 @@
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -10276,7 +11015,7 @@
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="27"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -10289,7 +11028,7 @@
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="27"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -10302,7 +11041,7 @@
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="27"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -10315,7 +11054,7 @@
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="27"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -10328,7 +11067,7 @@
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -10341,7 +11080,7 @@
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -10354,7 +11093,7 @@
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -10367,7 +11106,7 @@
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="27"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -10380,7 +11119,7 @@
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -10393,7 +11132,7 @@
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="27"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -10406,7 +11145,7 @@
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="27"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -10419,7 +11158,7 @@
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="27"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -10432,7 +11171,7 @@
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="27"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -10445,7 +11184,7 @@
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="27"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -10458,7 +11197,7 @@
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -10471,7 +11210,7 @@
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="27"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -10484,7 +11223,7 @@
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="27"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -10497,7 +11236,7 @@
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="27"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -10510,7 +11249,7 @@
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -10523,7 +11262,7 @@
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="27"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -10536,7 +11275,7 @@
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -10549,7 +11288,7 @@
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="27"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -10562,7 +11301,7 @@
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="27"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -10575,7 +11314,7 @@
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="27"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -10588,7 +11327,7 @@
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="27"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -10601,7 +11340,7 @@
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="27"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -10614,7 +11353,7 @@
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="27"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -10627,7 +11366,7 @@
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="27"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -10640,7 +11379,7 @@
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="27"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -10653,7 +11392,7 @@
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="27"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -10666,7 +11405,7 @@
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="27"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -10679,7 +11418,7 @@
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="27"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -10692,7 +11431,7 @@
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="27"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -10705,7 +11444,7 @@
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="27"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -10718,7 +11457,7 @@
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="27"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -10731,7 +11470,7 @@
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="27"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -10744,7 +11483,7 @@
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="27"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -10757,7 +11496,7 @@
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="27"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -10770,7 +11509,7 @@
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="27"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -10783,7 +11522,7 @@
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="27"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -10796,7 +11535,7 @@
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="27"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -10809,7 +11548,7 @@
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="27"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -10822,7 +11561,7 @@
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="27"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -10835,7 +11574,7 @@
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="27"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -10848,7 +11587,7 @@
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="27"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -10861,7 +11600,7 @@
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="27"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -10874,7 +11613,7 @@
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="27"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -10887,7 +11626,7 @@
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="27"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -10900,7 +11639,7 @@
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="27"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -10913,7 +11652,7 @@
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="27"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -10926,7 +11665,7 @@
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="27"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -10939,7 +11678,7 @@
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="27"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -10952,7 +11691,7 @@
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="27"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -10965,7 +11704,7 @@
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="27"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -10978,7 +11717,7 @@
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="27"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -10991,7 +11730,7 @@
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="27"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -11004,7 +11743,7 @@
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="27"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -11017,7 +11756,7 @@
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="27"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -11030,7 +11769,7 @@
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="27"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -11043,7 +11782,7 @@
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="27"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -11056,7 +11795,7 @@
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="27"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -11069,7 +11808,7 @@
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="27"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -11082,7 +11821,7 @@
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="27"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -11095,7 +11834,7 @@
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="27"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -11108,7 +11847,7 @@
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="27"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -11121,7 +11860,7 @@
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="27"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -11134,7 +11873,7 @@
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="27"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -11147,7 +11886,7 @@
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="27"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -11160,7 +11899,7 @@
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="27"/>
+      <c r="C113" s="47"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -11173,7 +11912,7 @@
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="27"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -11186,7 +11925,7 @@
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="27"/>
+      <c r="C115" s="47"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -11199,7 +11938,7 @@
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="27"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -11212,7 +11951,7 @@
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="27"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -11225,7 +11964,7 @@
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="27"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -11238,7 +11977,7 @@
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="27"/>
+      <c r="C119" s="47"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -11251,7 +11990,7 @@
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="27"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -11264,7 +12003,7 @@
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="27"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -11277,7 +12016,7 @@
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="27"/>
+      <c r="C122" s="47"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -11290,7 +12029,7 @@
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="27"/>
+      <c r="C123" s="47"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -11303,7 +12042,7 @@
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="27"/>
+      <c r="C124" s="47"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -11316,7 +12055,7 @@
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="27"/>
+      <c r="C125" s="47"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -11329,7 +12068,7 @@
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="27"/>
+      <c r="C126" s="47"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -11342,7 +12081,7 @@
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="27"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -11355,7 +12094,7 @@
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="27"/>
+      <c r="C128" s="47"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -11368,7 +12107,7 @@
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="27"/>
+      <c r="C129" s="47"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -11381,7 +12120,7 @@
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="27"/>
+      <c r="C130" s="47"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
@@ -11394,7 +12133,7 @@
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="27"/>
+      <c r="C131" s="47"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -11407,7 +12146,7 @@
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="27"/>
+      <c r="C132" s="47"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
@@ -11420,7 +12159,7 @@
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="27"/>
+      <c r="C133" s="47"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
@@ -11433,7 +12172,7 @@
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="27"/>
+      <c r="C134" s="47"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -11446,7 +12185,7 @@
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="27"/>
+      <c r="C135" s="47"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -11459,7 +12198,7 @@
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="27"/>
+      <c r="C136" s="47"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -11472,7 +12211,7 @@
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="27"/>
+      <c r="C137" s="47"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -11485,7 +12224,7 @@
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="27"/>
+      <c r="C138" s="47"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -11498,7 +12237,7 @@
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="27"/>
+      <c r="C139" s="47"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
@@ -11511,7 +12250,7 @@
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="27"/>
+      <c r="C140" s="47"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -11524,7 +12263,7 @@
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="27"/>
+      <c r="C141" s="47"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -11537,7 +12276,7 @@
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="27"/>
+      <c r="C142" s="47"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
@@ -11550,7 +12289,7 @@
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="27"/>
+      <c r="C143" s="47"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -11563,7 +12302,7 @@
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="27"/>
+      <c r="C144" s="47"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -11576,7 +12315,7 @@
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="27"/>
+      <c r="C145" s="47"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -11589,7 +12328,7 @@
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="27"/>
+      <c r="C146" s="47"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
@@ -11602,7 +12341,7 @@
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="27"/>
+      <c r="C147" s="47"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -11615,7 +12354,7 @@
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="27"/>
+      <c r="C148" s="47"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -11628,7 +12367,7 @@
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="27"/>
+      <c r="C149" s="47"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -11641,7 +12380,7 @@
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="27"/>
+      <c r="C150" s="47"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
@@ -11654,7 +12393,7 @@
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="27"/>
+      <c r="C151" s="47"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -11667,7 +12406,7 @@
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="27"/>
+      <c r="C152" s="47"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -11680,7 +12419,7 @@
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="27"/>
+      <c r="C153" s="47"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -11693,7 +12432,7 @@
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="27"/>
+      <c r="C154" s="47"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -11706,7 +12445,7 @@
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="27"/>
+      <c r="C155" s="47"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -11719,7 +12458,7 @@
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="27"/>
+      <c r="C156" s="47"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -11732,7 +12471,7 @@
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="27"/>
+      <c r="C157" s="47"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -11745,7 +12484,7 @@
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="27"/>
+      <c r="C158" s="47"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
@@ -11758,7 +12497,7 @@
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="27"/>
+      <c r="C159" s="47"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -11771,7 +12510,7 @@
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="27"/>
+      <c r="C160" s="47"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -11784,7 +12523,7 @@
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="27"/>
+      <c r="C161" s="47"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
@@ -11797,7 +12536,7 @@
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="27"/>
+      <c r="C162" s="47"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -11810,7 +12549,7 @@
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
-      <c r="C163" s="27"/>
+      <c r="C163" s="47"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -11823,7 +12562,7 @@
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="27"/>
+      <c r="C164" s="47"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -11836,7 +12575,7 @@
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="27"/>
+      <c r="C165" s="47"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -11849,7 +12588,7 @@
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="27"/>
+      <c r="C166" s="47"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -11862,7 +12601,7 @@
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="27"/>
+      <c r="C167" s="47"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -11875,7 +12614,7 @@
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="27"/>
+      <c r="C168" s="47"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -11888,7 +12627,7 @@
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="27"/>
+      <c r="C169" s="47"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -11901,7 +12640,7 @@
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="27"/>
+      <c r="C170" s="47"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -11914,7 +12653,7 @@
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="27"/>
+      <c r="C171" s="47"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -11927,7 +12666,7 @@
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="27"/>
+      <c r="C172" s="47"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -11940,7 +12679,7 @@
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="27"/>
+      <c r="C173" s="47"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -11953,7 +12692,7 @@
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="27"/>
+      <c r="C174" s="47"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -11966,7 +12705,7 @@
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
-      <c r="C175" s="27"/>
+      <c r="C175" s="47"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -11979,7 +12718,7 @@
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="27"/>
+      <c r="C176" s="47"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -11992,7 +12731,7 @@
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="27"/>
+      <c r="C177" s="47"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -12005,7 +12744,7 @@
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
-      <c r="C178" s="27"/>
+      <c r="C178" s="47"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -12018,7 +12757,7 @@
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="27"/>
+      <c r="C179" s="47"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -12031,7 +12770,7 @@
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="27"/>
+      <c r="C180" s="47"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -12044,7 +12783,7 @@
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="27"/>
+      <c r="C181" s="47"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
@@ -12057,7 +12796,7 @@
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="27"/>
+      <c r="C182" s="47"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
@@ -12070,7 +12809,7 @@
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="27"/>
+      <c r="C183" s="47"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
@@ -12083,7 +12822,7 @@
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="27"/>
+      <c r="C184" s="47"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -12096,7 +12835,7 @@
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="27"/>
+      <c r="C185" s="47"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
@@ -12109,7 +12848,7 @@
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="27"/>
+      <c r="C186" s="47"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -12122,7 +12861,7 @@
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="27"/>
+      <c r="C187" s="47"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -12135,7 +12874,7 @@
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="27"/>
+      <c r="C188" s="47"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -12148,7 +12887,7 @@
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="27"/>
+      <c r="C189" s="47"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -12161,7 +12900,7 @@
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="27"/>
+      <c r="C190" s="47"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -12174,7 +12913,7 @@
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
-      <c r="C191" s="27"/>
+      <c r="C191" s="47"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -12187,7 +12926,7 @@
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
-      <c r="C192" s="27"/>
+      <c r="C192" s="47"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -12200,7 +12939,7 @@
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
-      <c r="C193" s="27"/>
+      <c r="C193" s="47"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
@@ -12213,7 +12952,7 @@
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
-      <c r="C194" s="27"/>
+      <c r="C194" s="47"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -12226,7 +12965,7 @@
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
-      <c r="C195" s="27"/>
+      <c r="C195" s="47"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
@@ -12239,7 +12978,7 @@
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
-      <c r="C196" s="27"/>
+      <c r="C196" s="47"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
@@ -12252,7 +12991,7 @@
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
-      <c r="C197" s="27"/>
+      <c r="C197" s="47"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
@@ -12265,7 +13004,7 @@
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
-      <c r="C198" s="27"/>
+      <c r="C198" s="47"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
@@ -12278,7 +13017,7 @@
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
-      <c r="C199" s="27"/>
+      <c r="C199" s="47"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
@@ -12291,7 +13030,7 @@
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
-      <c r="C200" s="27"/>
+      <c r="C200" s="47"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -12304,7 +13043,7 @@
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
-      <c r="C201" s="27"/>
+      <c r="C201" s="47"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
